--- a/data/trans_dic/P2A_enfcro_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6379761326095565</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5091885753096806</v>
+        <v>0.5091885753096808</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6231299966859258</v>
@@ -697,7 +697,7 @@
         <v>0.5898476887530285</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4619574305663968</v>
+        <v>0.4619574305663969</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.455365377324401</v>
+        <v>0.4561878530543799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.486617622672972</v>
+        <v>0.4863346143881634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5057842369952287</v>
+        <v>0.5057464817335567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3539731463686336</v>
+        <v>0.3574013827444684</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6701019394570978</v>
+        <v>0.6712457535829337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6733819834641911</v>
+        <v>0.6687208647556004</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6110721110633867</v>
+        <v>0.6124605972428749</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.475713125693734</v>
+        <v>0.4723451238693763</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.596440428138467</v>
+        <v>0.5995452544674389</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.58959755437948</v>
+        <v>0.5899395833848408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5689854709874592</v>
+        <v>0.5698701213790399</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4308874561153738</v>
+        <v>0.4344641996200376</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5407994135510235</v>
+        <v>0.542173206229736</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.552152408956089</v>
+        <v>0.5489545937050214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5668393295922896</v>
+        <v>0.5653119559939154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4474254092468071</v>
+        <v>0.4519261883961189</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7304341180513551</v>
+        <v>0.7316140260788557</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7282500041020236</v>
+        <v>0.7271330828780818</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6667690206301046</v>
+        <v>0.6653995470102577</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5471649914788749</v>
+        <v>0.5439292571387253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6507242828262707</v>
+        <v>0.6501607579873789</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6319684480169042</v>
+        <v>0.6346064290039507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6101971085020672</v>
+        <v>0.6114310609673594</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4893653735130467</v>
+        <v>0.4909731137660327</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.5578631388762724</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4115822493328016</v>
+        <v>0.4115822493328015</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4339557089755829</v>
+        <v>0.4327597633890375</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5293811401693174</v>
+        <v>0.5307177580990213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4570886289962814</v>
+        <v>0.456791772584299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3356302467696698</v>
+        <v>0.3353757161200953</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5665611224252189</v>
+        <v>0.5660350333885197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6582791574576549</v>
+        <v>0.6578289986441563</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5892681922744847</v>
+        <v>0.5889460495289567</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4250886051239278</v>
+        <v>0.4245071341754061</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5065319698210834</v>
+        <v>0.5054418870623494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6036692596778725</v>
+        <v>0.6045919890972528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5340766713343814</v>
+        <v>0.5355676606413515</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3893216727180948</v>
+        <v>0.390052521021319</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4952522535234568</v>
+        <v>0.4952061125231563</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5959651038769792</v>
+        <v>0.5953834248595367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5248869137966858</v>
+        <v>0.5271844760958369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4008842083159729</v>
+        <v>0.4020734036130171</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6254823361557617</v>
+        <v>0.6246040354324636</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7155852491999315</v>
+        <v>0.7119263180281499</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.649268256369366</v>
+        <v>0.6499331009464899</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4794265970189668</v>
+        <v>0.4771897673779348</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5513911376174703</v>
+        <v>0.5500432858079575</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6509368419709819</v>
+        <v>0.6481307369135608</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5802687318928998</v>
+        <v>0.5807036729641883</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4309566882902253</v>
+        <v>0.4320311987646232</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.5975479244892991</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3774390903712052</v>
+        <v>0.3774390903712053</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4741970181806435</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3896720868557121</v>
+        <v>0.3902920692077535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5317975539222398</v>
+        <v>0.5357663164208643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4286811476858176</v>
+        <v>0.4290007597686907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2990577293665584</v>
+        <v>0.2964191050990004</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5041747699094704</v>
+        <v>0.5016764060241798</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6285078319918345</v>
+        <v>0.630736427711313</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5628461320716283</v>
+        <v>0.5622414382415507</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3498863948972096</v>
+        <v>0.3511512467114208</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4536171938119561</v>
+        <v>0.4538055946301695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5932394224735189</v>
+        <v>0.5939358562823125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5059940456319215</v>
+        <v>0.5044158543676993</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3312092645229633</v>
+        <v>0.3314369386218728</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4489340905137251</v>
+        <v>0.4492811194630442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6024876397401272</v>
+        <v>0.6051973062362183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5013447132526572</v>
+        <v>0.5060994852560102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3606488368731016</v>
+        <v>0.360208091557969</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5687502889866531</v>
+        <v>0.5661157169499095</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6940791118894108</v>
+        <v>0.6960899453508266</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6350866335632819</v>
+        <v>0.6323972388934606</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.403376869155243</v>
+        <v>0.4025374861446789</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4951047165334034</v>
+        <v>0.4965204298258452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6411648853598434</v>
+        <v>0.6420494999511797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5551923635618278</v>
+        <v>0.5545240985756112</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3725050607707212</v>
+        <v>0.3725213480146175</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3394453643732503</v>
+        <v>0.3440931997061094</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4323009934984813</v>
+        <v>0.4246264819051525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4040661228395057</v>
+        <v>0.4093977586729931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2267286081190536</v>
+        <v>0.2275125142385767</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5113916037399667</v>
+        <v>0.5139107423377983</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5748874128139659</v>
+        <v>0.5718584622495198</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5106166346118873</v>
+        <v>0.50916579943123</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2494314182943504</v>
+        <v>0.2490591141796996</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4311109650999856</v>
+        <v>0.4301490803273198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5110757639575195</v>
+        <v>0.5134034454300351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4731086601860178</v>
+        <v>0.4733300061174042</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.246049421154853</v>
+        <v>0.245099818633919</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4358732368847488</v>
+        <v>0.4344709979346454</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5259648110884905</v>
+        <v>0.5202017734058739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5015239339160735</v>
+        <v>0.5055400362486628</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2865465227237066</v>
+        <v>0.288094992032397</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6169188023963939</v>
+        <v>0.6232213023375662</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6669199464201666</v>
+        <v>0.6711552070476954</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5984528703687275</v>
+        <v>0.5979766408419664</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2997267779663199</v>
+        <v>0.3009557428784436</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5008334491634816</v>
+        <v>0.5015352414532508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5784760300610631</v>
+        <v>0.5833346855783401</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5373920261064576</v>
+        <v>0.5380016467057482</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2848900644578454</v>
+        <v>0.2859944001808287</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4280147707443215</v>
+        <v>0.4266264301667894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5198070103379265</v>
+        <v>0.5201312401200725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4777000392104628</v>
+        <v>0.4764231265389176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3109916736704655</v>
+        <v>0.3119166235025341</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5878950691382774</v>
+        <v>0.5863284918496365</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6593929470785331</v>
+        <v>0.6591862060677661</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5951326305110043</v>
+        <v>0.5962137833824008</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3820310656151398</v>
+        <v>0.3829391796351673</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5130019194586958</v>
+        <v>0.5131098725954205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5965609486834149</v>
+        <v>0.5971803365075325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.542809923507004</v>
+        <v>0.5423829866404941</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3525643068846903</v>
+        <v>0.3520727239419296</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4640101164093954</v>
+        <v>0.4629760928443051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5547097595599201</v>
+        <v>0.5577824401390244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5126790737296446</v>
+        <v>0.5132758462851412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3459798579362333</v>
+        <v>0.3447968633181522</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6211785090861942</v>
+        <v>0.6213045830690901</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6908560641185214</v>
+        <v>0.6923035478172745</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6281358931303387</v>
+        <v>0.6286399230298484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4111569164219214</v>
+        <v>0.4108797828001456</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5374816677707533</v>
+        <v>0.5376295728352939</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6210372144496245</v>
+        <v>0.6217090222002163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5676798204484786</v>
+        <v>0.5683826690475769</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3746156133560982</v>
+        <v>0.373510348182005</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>265998</v>
+        <v>266478</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>507997</v>
+        <v>507702</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>570523</v>
+        <v>570481</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>176540</v>
+        <v>178250</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>618057</v>
+        <v>619112</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>754139</v>
+        <v>748919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>769683</v>
+        <v>771431</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>296645</v>
+        <v>294545</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>898522</v>
+        <v>903199</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1275808</v>
+        <v>1276548</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1358486</v>
+        <v>1360598</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>483594</v>
+        <v>487608</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>315903</v>
+        <v>316706</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>576411</v>
+        <v>573073</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>639393</v>
+        <v>637670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>223149</v>
+        <v>225393</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>673703</v>
+        <v>674792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>815588</v>
+        <v>814337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>839836</v>
+        <v>838111</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>341201</v>
+        <v>339183</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>980299</v>
+        <v>979450</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1367493</v>
+        <v>1373201</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1456881</v>
+        <v>1459827</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>549225</v>
+        <v>551029</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>467758</v>
+        <v>466469</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>517244</v>
+        <v>518550</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>415414</v>
+        <v>415144</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>322251</v>
+        <v>322007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>599160</v>
+        <v>598604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>720330</v>
+        <v>719837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>593084</v>
+        <v>592759</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>474335</v>
+        <v>473686</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1081665</v>
+        <v>1079337</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1250401</v>
+        <v>1252313</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1022917</v>
+        <v>1025773</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>808226</v>
+        <v>809744</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>533829</v>
+        <v>533780</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>582301</v>
+        <v>581733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>477030</v>
+        <v>479118</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>384904</v>
+        <v>386046</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>661471</v>
+        <v>660543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>783038</v>
+        <v>779034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>653472</v>
+        <v>654141</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>534968</v>
+        <v>532472</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1177458</v>
+        <v>1174580</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1348308</v>
+        <v>1342496</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1111389</v>
+        <v>1112222</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>894660</v>
+        <v>896891</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>437054</v>
+        <v>437749</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>470702</v>
+        <v>474215</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>353130</v>
+        <v>353393</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>312958</v>
+        <v>310196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>501119</v>
+        <v>498636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>550445</v>
+        <v>552396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>433988</v>
+        <v>433521</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>366556</v>
+        <v>367881</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>959643</v>
+        <v>960041</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1044642</v>
+        <v>1045868</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>806968</v>
+        <v>804451</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>693592</v>
+        <v>694069</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>503522</v>
+        <v>503911</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>533271</v>
+        <v>535669</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>412987</v>
+        <v>416904</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>377411</v>
+        <v>376950</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>565304</v>
+        <v>562685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>607872</v>
+        <v>609633</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>489689</v>
+        <v>487616</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>422595</v>
+        <v>421715</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1047411</v>
+        <v>1050406</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1129034</v>
+        <v>1130592</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>885431</v>
+        <v>884365</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>780071</v>
+        <v>780105</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>151800</v>
+        <v>153878</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>217457</v>
+        <v>213597</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>204741</v>
+        <v>207442</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>221271</v>
+        <v>222036</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>174465</v>
+        <v>175325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>260272</v>
+        <v>258901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>250048</v>
+        <v>249337</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>227069</v>
+        <v>226730</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>339870</v>
+        <v>339111</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>488465</v>
+        <v>490689</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>471405</v>
+        <v>471625</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>464117</v>
+        <v>462325</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>194923</v>
+        <v>194295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>264572</v>
+        <v>261673</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>254123</v>
+        <v>256158</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>279649</v>
+        <v>281160</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>210467</v>
+        <v>212617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>301939</v>
+        <v>303856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>293061</v>
+        <v>292828</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>272855</v>
+        <v>273974</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>394836</v>
+        <v>395389</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>552883</v>
+        <v>557527</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>535456</v>
+        <v>536064</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>537381</v>
+        <v>539464</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1382843</v>
+        <v>1378357</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1772097</v>
+        <v>1773203</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1608551</v>
+        <v>1604251</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1082650</v>
+        <v>1085870</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1948854</v>
+        <v>1943661</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2336046</v>
+        <v>2335313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2098909</v>
+        <v>2102722</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1412528</v>
+        <v>1415885</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3358007</v>
+        <v>3358714</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4147212</v>
+        <v>4151518</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3742172</v>
+        <v>3739229</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2530954</v>
+        <v>2527425</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1499137</v>
+        <v>1495797</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1891086</v>
+        <v>1901561</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1726335</v>
+        <v>1728345</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1204454</v>
+        <v>1200336</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2059188</v>
+        <v>2059605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2447511</v>
+        <v>2452639</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2215305</v>
+        <v>2217082</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1520218</v>
+        <v>1519193</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3518246</v>
+        <v>3519215</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4317368</v>
+        <v>4322038</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3913627</v>
+        <v>3918473</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2689253</v>
+        <v>2681319</v>
       </c>
     </row>
     <row r="24">
